--- a/excel/code/pyLogTrail.xlsx
+++ b/excel/code/pyLogTrail.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="47">
   <si>
     <t>子脚本输出</t>
     <rPh sb="0" eb="1">
@@ -276,6 +276,21 @@
   </si>
   <si>
     <t>/Users/jiasy/Documents/develop/tuyoo/majiang2-py/src/majiang2/</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>filterFiles</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>那些文件过滤</t>
+    <rPh sb="0" eb="2">
+      <t>na'xie</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LuaDebugjit</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -4072,59 +4087,59 @@
     <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="1133" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="1133" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="2" xfId="1133" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="3" xfId="1133" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="2" xfId="1133" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="3" xfId="1133" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="1133" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1134">
@@ -5650,7 +5665,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -5694,7 +5709,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -5716,10 +5731,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K30"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.75" defaultRowHeight="25" customHeight="1"/>
@@ -5773,11 +5788,11 @@
       <c r="B4" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="27" t="str">
+      <c r="C4" s="37" t="str">
         <f ca="1">REPLACE(CELL("filename"),FIND("[",CELL("filename"))-1,99,)</f>
         <v>/Users/jiasy/Documents/sourceFrame/pyWorkFlow/excel/code</v>
       </c>
-      <c r="D4" s="28"/>
+      <c r="D4" s="38"/>
       <c r="E4" s="3"/>
       <c r="F4" s="1" t="s">
         <v>23</v>
@@ -5787,11 +5802,11 @@
       <c r="B5" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="26" t="str">
+      <c r="C5" s="29" t="str">
         <f ca="1">C4&amp;"/../../pythonCode/base/ExcelWorkFlow.py"</f>
         <v>/Users/jiasy/Documents/sourceFrame/pyWorkFlow/excel/code/../../pythonCode/base/ExcelWorkFlow.py</v>
       </c>
-      <c r="D5" s="26"/>
+      <c r="D5" s="29"/>
       <c r="E5" s="3"/>
       <c r="F5" s="1" t="s">
         <v>24</v>
@@ -5801,88 +5816,88 @@
       <c r="B6" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="26" t="str">
+      <c r="C6" s="29" t="str">
         <f ca="1">C4&amp;"/../../test"</f>
         <v>/Users/jiasy/Documents/sourceFrame/pyWorkFlow/excel/code/../../test</v>
       </c>
-      <c r="D6" s="30"/>
+      <c r="D6" s="43"/>
       <c r="E6" s="3"/>
     </row>
     <row r="7" spans="2:11" ht="15">
       <c r="B7" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="26" t="str">
+      <c r="C7" s="29" t="str">
         <f ca="1">C4&amp;"/../../temp"</f>
         <v>/Users/jiasy/Documents/sourceFrame/pyWorkFlow/excel/code/../../temp</v>
       </c>
-      <c r="D7" s="29"/>
+      <c r="D7" s="30"/>
       <c r="E7" s="3"/>
     </row>
     <row r="8" spans="2:11" ht="15">
       <c r="B8" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="26" t="str">
+      <c r="C8" s="29" t="str">
         <f ca="1">C4&amp;"/../../pythonCode/ClientTools"</f>
         <v>/Users/jiasy/Documents/sourceFrame/pyWorkFlow/excel/code/../../pythonCode/ClientTools</v>
       </c>
-      <c r="D8" s="29"/>
+      <c r="D8" s="30"/>
       <c r="E8" s="3"/>
     </row>
     <row r="9" spans="2:11" ht="15">
       <c r="B9" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="26" t="str">
+      <c r="C9" s="29" t="str">
         <f ca="1">C4&amp;"/../../pythonCode/ServerTools"</f>
         <v>/Users/jiasy/Documents/sourceFrame/pyWorkFlow/excel/code/../../pythonCode/ServerTools</v>
       </c>
-      <c r="D9" s="29"/>
+      <c r="D9" s="30"/>
       <c r="E9" s="3"/>
     </row>
     <row r="10" spans="2:11" ht="15">
       <c r="B10" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="26" t="str">
+      <c r="C10" s="29" t="str">
         <f ca="1">C4&amp;"/../../pythonCode/CommonTools"</f>
         <v>/Users/jiasy/Documents/sourceFrame/pyWorkFlow/excel/code/../../pythonCode/CommonTools</v>
       </c>
-      <c r="D10" s="29"/>
+      <c r="D10" s="30"/>
       <c r="E10" s="3"/>
     </row>
     <row r="11" spans="2:11" ht="15">
       <c r="B11" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="35" t="str">
+      <c r="C11" s="27" t="str">
         <f ca="1">MID(CELL("filename"),SEARCH("[",CELL("filename"))+1, SEARCH("]",CELL("filename"))-SEARCH("[",CELL("filename"))-1)</f>
         <v>pyLogTrail.xlsx</v>
       </c>
-      <c r="D11" s="36"/>
+      <c r="D11" s="28"/>
       <c r="E11" s="3"/>
     </row>
     <row r="12" spans="2:11" ht="15">
       <c r="B12" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="35" t="str">
+      <c r="C12" s="27" t="str">
         <f ca="1">MID(CELL("filename"),SEARCH("[",CELL("filename"))+1, SEARCH(".xlsx",CELL("filename"))-SEARCH("[",CELL("filename"))-1)</f>
         <v>pyLogTrail</v>
       </c>
-      <c r="D12" s="36"/>
+      <c r="D12" s="28"/>
       <c r="E12" s="3"/>
     </row>
     <row r="13" spans="2:11" ht="15">
       <c r="B13" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="27" t="str">
+      <c r="C13" s="37" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))</f>
         <v>pngTest</v>
       </c>
-      <c r="D13" s="28"/>
+      <c r="D13" s="38"/>
       <c r="E13" s="3"/>
     </row>
     <row r="14" spans="2:11" ht="15">
@@ -5900,10 +5915,10 @@
       <c r="B15" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="37" t="s">
+      <c r="C15" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="38"/>
+      <c r="D15" s="32"/>
       <c r="E15" s="3"/>
       <c r="F15" s="1" t="s">
         <v>22</v>
@@ -5913,10 +5928,10 @@
       <c r="B16" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="37" t="s">
+      <c r="C16" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="38"/>
+      <c r="D16" s="32"/>
       <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:7" ht="15">
@@ -5950,10 +5965,10 @@
       <c r="B20" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="31" t="s">
+      <c r="C20" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="32"/>
+      <c r="D20" s="34"/>
       <c r="E20" s="18"/>
       <c r="F20" s="19"/>
     </row>
@@ -5964,11 +5979,11 @@
       <c r="B21" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="33" t="str">
+      <c r="C21" s="35" t="str">
         <f ca="1">C10&amp;"/Code/pyLogTrail.py"</f>
         <v>/Users/jiasy/Documents/sourceFrame/pyWorkFlow/excel/code/../../pythonCode/CommonTools/Code/pyLogTrail.py</v>
       </c>
-      <c r="D21" s="34"/>
+      <c r="D21" s="36"/>
       <c r="E21" s="18"/>
       <c r="F21" s="19"/>
     </row>
@@ -6002,17 +6017,17 @@
     </row>
     <row r="24" spans="1:7" ht="25" customHeight="1" thickBot="1">
       <c r="C24" s="1"/>
-      <c r="D24" s="43" t="s">
+      <c r="D24" s="26" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="25" customHeight="1" thickBot="1">
-      <c r="D25" s="43" t="s">
+      <c r="D25" s="26" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="25" customHeight="1" thickBot="1">
-      <c r="D26" s="43" t="s">
+      <c r="D26" s="26" t="s">
         <v>38</v>
       </c>
     </row>
@@ -6022,38 +6037,54 @@
       </c>
     </row>
     <row r="28" spans="1:7" ht="25" customHeight="1" thickBot="1">
-      <c r="D28" s="43" t="s">
+      <c r="D28" s="26" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="25" customHeight="1" thickBot="1">
-      <c r="D29" s="43" t="s">
+      <c r="D29" s="26" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="25" customHeight="1" thickBot="1">
-      <c r="D30" s="43" t="s">
+      <c r="D30" s="26" t="s">
         <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="25" customHeight="1" thickBot="1">
+      <c r="B31" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C31" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="D31" s="25" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="25" customHeight="1" thickBot="1">
+      <c r="D32" s="25" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C8:D8"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C15:D15"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations disablePrompts="1" count="2">
